--- a/Sprint2_Backlog.xlsx
+++ b/Sprint2_Backlog.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="55">
   <si>
     <t>User story</t>
   </si>
@@ -171,20 +171,23 @@
     <t>coordinate with daniel (approving form)</t>
   </si>
   <si>
-    <t>As an Investor I should be able to track case</t>
-  </si>
-  <si>
     <t>The system should assign cases automatically and lock cases assigned</t>
   </si>
   <si>
     <t>the system should compute avg time taken per case for staff member</t>
+  </si>
+  <si>
+    <t>As an Investor I should be able to track case by seeing which phase</t>
+  </si>
+  <si>
+    <t>Epic</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -199,12 +202,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
     </font>
   </fonts>
   <fills count="4">
@@ -250,7 +247,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -555,13 +552,13 @@
   <dimension ref="A1:G38"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25:G25"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="14.26953125" customWidth="1"/>
-    <col min="2" max="2" width="74" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="77.36328125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16" customWidth="1"/>
     <col min="4" max="4" width="19.08984375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16" customWidth="1"/>
@@ -611,6 +608,9 @@
       <c r="F2" s="2" t="s">
         <v>9</v>
       </c>
+      <c r="G2" s="2" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="3" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
@@ -785,7 +785,7 @@
         <v>1.9</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C12" s="2">
         <v>3</v>
@@ -1146,7 +1146,7 @@
         <v>3.6</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C30" s="2">
         <v>3</v>
@@ -1215,7 +1215,7 @@
         <v>3.9</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C33" s="2">
         <v>3</v>

--- a/Sprint2_Backlog.xlsx
+++ b/Sprint2_Backlog.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="55">
   <si>
     <t>User story</t>
   </si>
@@ -168,9 +168,6 @@
     <t>The system should publish a Company and board of directors once the form is approved</t>
   </si>
   <si>
-    <t>coordinate with daniel (approving form)</t>
-  </si>
-  <si>
     <t>The system should assign cases automatically and lock cases assigned</t>
   </si>
   <si>
@@ -181,13 +178,16 @@
   </si>
   <si>
     <t>Epic</t>
+  </si>
+  <si>
+    <t>Deleted as it is not needed</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -199,6 +199,13 @@
       <b/>
       <sz val="12"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -236,7 +243,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -248,6 +255,17 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -551,8 +569,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G38"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="G32" sqref="G32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -609,14 +627,14 @@
         <v>9</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A3" s="2">
+      <c r="A3" s="5">
         <v>1.1000000000000001</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="8" t="s">
         <v>10</v>
       </c>
       <c r="C3" s="2">
@@ -633,10 +651,10 @@
       </c>
     </row>
     <row r="4" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A4" s="2">
+      <c r="A4" s="5">
         <v>1.2</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="8" t="s">
         <v>13</v>
       </c>
       <c r="C4" s="2">
@@ -653,10 +671,10 @@
       </c>
     </row>
     <row r="5" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A5" s="2">
+      <c r="A5" s="5">
         <v>1.3</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="8" t="s">
         <v>14</v>
       </c>
       <c r="C5" s="2">
@@ -673,10 +691,10 @@
       </c>
     </row>
     <row r="6" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A6" s="2">
+      <c r="A6" s="5">
         <v>1.4</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="8" t="s">
         <v>16</v>
       </c>
       <c r="C6" s="2">
@@ -696,7 +714,7 @@
       <c r="A7" s="2">
         <v>1.5</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="8" t="s">
         <v>18</v>
       </c>
       <c r="C7" s="2">
@@ -716,7 +734,7 @@
       <c r="A8" s="2">
         <v>1.6</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="8" t="s">
         <v>19</v>
       </c>
       <c r="C8" s="2">
@@ -736,7 +754,7 @@
       <c r="A9" s="2">
         <v>1.7</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="8" t="s">
         <v>20</v>
       </c>
       <c r="C9" s="2">
@@ -756,7 +774,7 @@
       <c r="A10" s="2">
         <v>1.8</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="8" t="s">
         <v>17</v>
       </c>
       <c r="C10" s="2">
@@ -774,7 +792,7 @@
     </row>
     <row r="11" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A11" s="2"/>
-      <c r="B11" s="3"/>
+      <c r="B11" s="8"/>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
@@ -785,7 +803,7 @@
         <v>1.9</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C12" s="2">
         <v>3</v>
@@ -804,7 +822,7 @@
       <c r="A13" s="2">
         <v>2</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="8" t="s">
         <v>31</v>
       </c>
       <c r="C13" s="2">
@@ -824,7 +842,7 @@
       <c r="A14" s="2">
         <v>2.1</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B14" s="8" t="s">
         <v>24</v>
       </c>
       <c r="C14" s="2">
@@ -844,7 +862,7 @@
       <c r="A15" s="2">
         <v>2.2000000000000002</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="B15" s="8" t="s">
         <v>25</v>
       </c>
       <c r="C15" s="2">
@@ -867,7 +885,7 @@
       <c r="A16" s="2">
         <v>2.2999999999999998</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="B16" s="8" t="s">
         <v>28</v>
       </c>
       <c r="C16" s="2">
@@ -890,7 +908,7 @@
       <c r="A17" s="2">
         <v>2.4</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="B17" s="8" t="s">
         <v>30</v>
       </c>
       <c r="C17" s="2">
@@ -913,7 +931,7 @@
       <c r="A18" s="2">
         <v>2.5</v>
       </c>
-      <c r="B18" s="3" t="s">
+      <c r="B18" s="8" t="s">
         <v>32</v>
       </c>
       <c r="C18" s="2">
@@ -933,7 +951,7 @@
       <c r="A19" s="2">
         <v>2.6</v>
       </c>
-      <c r="B19" s="3" t="s">
+      <c r="B19" s="8" t="s">
         <v>33</v>
       </c>
       <c r="C19" s="2">
@@ -956,7 +974,7 @@
       <c r="A20" s="2">
         <v>2.7</v>
       </c>
-      <c r="B20" s="3" t="s">
+      <c r="B20" s="8" t="s">
         <v>35</v>
       </c>
       <c r="C20" s="2">
@@ -979,7 +997,7 @@
       <c r="A21" s="2">
         <v>2.8</v>
       </c>
-      <c r="B21" s="3" t="s">
+      <c r="B21" s="8" t="s">
         <v>36</v>
       </c>
       <c r="C21" s="2">
@@ -1002,7 +1020,7 @@
       <c r="A22" s="2">
         <v>2.9</v>
       </c>
-      <c r="B22" s="3" t="s">
+      <c r="B22" s="8" t="s">
         <v>37</v>
       </c>
       <c r="C22" s="2">
@@ -1016,13 +1034,16 @@
       </c>
       <c r="F22" s="2" t="s">
         <v>23</v>
+      </c>
+      <c r="G22" s="6" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A23" s="2">
         <v>3</v>
       </c>
-      <c r="B23" s="3" t="s">
+      <c r="B23" s="8" t="s">
         <v>38</v>
       </c>
       <c r="C23" s="2">
@@ -1036,13 +1057,16 @@
       </c>
       <c r="F23" s="2" t="s">
         <v>22</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A24" s="2">
         <v>3.1</v>
       </c>
-      <c r="B24" s="3" t="s">
+      <c r="B24" s="8" t="s">
         <v>39</v>
       </c>
       <c r="C24" s="2">
@@ -1057,12 +1081,15 @@
       <c r="F24" s="2" t="s">
         <v>23</v>
       </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B25" s="9"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A26" s="2">
         <v>3.2</v>
       </c>
-      <c r="B26" s="3" t="s">
+      <c r="B26" s="8" t="s">
         <v>40</v>
       </c>
       <c r="C26" s="2">
@@ -1082,7 +1109,7 @@
       <c r="A27" s="2">
         <v>3.3</v>
       </c>
-      <c r="B27" s="3" t="s">
+      <c r="B27" s="8" t="s">
         <v>43</v>
       </c>
       <c r="C27" s="2">
@@ -1102,7 +1129,7 @@
       <c r="A28" s="2">
         <v>3.4</v>
       </c>
-      <c r="B28" s="3" t="s">
+      <c r="B28" s="8" t="s">
         <v>44</v>
       </c>
       <c r="C28" s="2">
@@ -1137,8 +1164,8 @@
       <c r="F29" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="G29" t="s">
-        <v>29</v>
+      <c r="G29" s="7" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.35">
@@ -1146,7 +1173,7 @@
         <v>3.6</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C30" s="2">
         <v>3</v>
@@ -1206,16 +1233,16 @@
       <c r="F32" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="G32" s="2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G32" s="7" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A33" s="2">
         <v>3.9</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C33" s="2">
         <v>3</v>
@@ -1229,8 +1256,9 @@
       <c r="F33" s="2" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G33" s="7"/>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A38" s="2"/>
     </row>
   </sheetData>
